--- a/biology/Botanique/Maladie_des_bandes_rouges/Maladie_des_bandes_rouges.xlsx
+++ b/biology/Botanique/Maladie_des_bandes_rouges/Maladie_des_bandes_rouges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie des bandes rouges est une maladie fongique à répartition cosmopolite qui affecte un certain nombre de conifères, notamment dans le genre Pinus, dont plus de 80 espèces sont plus ou moins sensibles à la maladie, mais aussi dans d'autre genres (Picea, Larix, Pseudtsuga).
 Parmi les espèces plus particulièrement touchées au Royaume-Uni et en France figurent le pin laricio de Corse (Pinus nigra subsp. laricio), le pin tordu (Pinus contorta) et le pin sylvestre (Pinus sylvestris). 
@@ -514,7 +526,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D. pini se trouve dans un grand quart Sud-Ouest de la France ; D. septosporum dans l'ensemble des zones contaminées.
 </t>
